--- a/biology/Zoologie/Conus_anemone/Conus_anemone.xlsx
+++ b/biology/Zoologie/Conus_anemone/Conus_anemone.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Conus anemone est une espèce de mollusques gastéropodes marins de la famille des Conidae.
 Comme toutes les espèces du genre Conus, ces escargots sont prédateurs et venimeux. Ils sont capables de « piquer » les humains et doivent donc être manipulés avec précaution, voire pas du tout.
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La taille de la coquille varie entre 21 mm et 93 mm. La forme de la coquille est très variable. Elle est courte et robuste, avec une spire courte, ou plus longue et plus élancée, avec une spire élevée. La spire et le verticille sont étroitement entourés de stries étroites. La couleur de la coquille est blanche, nébuleusement ou réticulairement peinte longitudinalement de marron ou de chocolat, avec une bande blanche centrale irrégulière. La couleur de l'ouverture est teintée de chocolat et bordée de blanc au centre[1]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La taille de la coquille varie entre 21 mm et 93 mm. La forme de la coquille est très variable. Elle est courte et robuste, avec une spire courte, ou plus longue et plus élancée, avec une spire élevée. La spire et le verticille sont étroitement entourés de stries étroites. La couleur de la coquille est blanche, nébuleusement ou réticulairement peinte longitudinalement de marron ou de chocolat, avec une bande blanche centrale irrégulière. La couleur de l'ouverture est teintée de chocolat et bordée de blanc au centre. 
 </t>
         </is>
       </c>
@@ -543,11 +557,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est endémique à l'Australie et se trouve au large de la Nouvelle-Galles du Sud, Australie du Sud, Tasmanie, Victoria et Australie-Occidentale.
-Niveau de risque d’extinction de l’espèce
-Selon l'analyse de l'UICN réalisée en 2011 pour la définition du niveau de risque d'extinction, cette espèce se trouve de Shark Bay, en Australie-Occidentale, au sud de l'Australie méridionale, de Victoria, et de la côte nord et est de la Tasmanie ; aussi loin au sud que Hobart et au nord jusqu'à la frontière du Queensland. On la trouve également sur l'île Lord Howe. Cette espèce est intertidale jusqu'à 130 m. En tant qu'espèce en général, il n'y a pas de menaces spécifiques pour elle. Cependant, les populations ou formes isolées peuvent avoir des préoccupations spécifiques. La distribution chevauche plusieurs zones marines protégées en Australie. Il est nécessaire d'améliorer la résolution et la recherche sur la taxonomie, car cela peut avoir un impact important sur la nécessité de se concentrer sur la conservation de populations spécifiques. L'espèce est classée comme étant de préoccupation mineure[2].
 </t>
         </is>
       </c>
@@ -573,15 +587,92 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Niveau de risque d’extinction de l’espèce</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon l'analyse de l'UICN réalisée en 2011 pour la définition du niveau de risque d'extinction, cette espèce se trouve de Shark Bay, en Australie-Occidentale, au sud de l'Australie méridionale, de Victoria, et de la côte nord et est de la Tasmanie ; aussi loin au sud que Hobart et au nord jusqu'à la frontière du Queensland. On la trouve également sur l'île Lord Howe. Cette espèce est intertidale jusqu'à 130 m. En tant qu'espèce en général, il n'y a pas de menaces spécifiques pour elle. Cependant, les populations ou formes isolées peuvent avoir des préoccupations spécifiques. La distribution chevauche plusieurs zones marines protégées en Australie. Il est nécessaire d'améliorer la résolution et la recherche sur la taxonomie, car cela peut avoir un impact important sur la nécessité de se concentrer sur la conservation de populations spécifiques. L'espèce est classée comme étant de préoccupation mineure.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Conus_anemone</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_anemone</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Première description
-L'espèce Conus anemone a été décrite pour la première fois en 1810 par le naturaliste français Jean-Baptiste Lamarck (1744-1829) dans la publication intitulée « Annales du Muséum d'Histoire Naturelle »[3],[4].
-Synonymes
-Conus (Floraconus) anemone Lamarck, 1810 · appellation alternative
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Première description</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Conus anemone a été décrite pour la première fois en 1810 par le naturaliste français Jean-Baptiste Lamarck (1744-1829) dans la publication intitulée « Annales du Muséum d'Histoire Naturelle »,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Conus_anemone</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_anemone</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Conus (Floraconus) anemone Lamarck, 1810 · appellation alternative
 Conus carmeli Tenison Woods, 1877 · non accepté
 Conus flindersi Brazier, 1898 · non accepté
 Conus incinctus Fenaux, 1942 · non accepté
@@ -597,13 +688,81 @@
 Floraconus anemone (Lamarck, 1810) · non accepté
 Floraconus peronianus Iredale, 1931 · non accepté
 Floraconus saundersi Cotton, 1945 · non accepté
-Floraconus singletoni Cotton, 1945 · non accepté
-Sous-espèces
- Conus anemone anemone Lamarck, 1810
+Floraconus singletoni Cotton, 1945 · non accepté</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Conus_anemone</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_anemone</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Conus anemone anemone Lamarck, 1810
  Conus anemone novaehollandiae A. Adams, 1854
- Conus anemone compressus G. B. Sowerby II, 1866, accepté en tant que Conus compressus G. B. Sowerby II, 1866
-Identifiants taxinomiques
-Chaque taxon catalogué par les bases de données biologiques et taxonomiques possède un identifiant qui permet d'établir un point de référence. Les identifiants de Conus anemone dans les principales bases sont les suivants :
+ Conus anemone compressus G. B. Sowerby II, 1866, accepté en tant que Conus compressus G. B. Sowerby II, 1866</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Conus_anemone</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_anemone</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Identifiants taxinomiques</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chaque taxon catalogué par les bases de données biologiques et taxonomiques possède un identifiant qui permet d'établir un point de référence. Les identifiants de Conus anemone dans les principales bases sont les suivants :
 AFD : Conus_(Floraconus)_anemone - CoL : XWW7 - GBIF : 5795773 - iNaturalist : 431829 - IRMNG : 10531689 - TAXREF : 94304 - UICN : 192308 - 
 </t>
         </is>
